--- a/CashFlow/CPRT_cashflow.xlsx
+++ b/CashFlow/CPRT_cashflow.xlsx
@@ -75,7 +75,7 @@
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="28.6"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="14.3"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="14.3"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="14.3"/>
     <col min="6" max="6" bestFit="1" customWidth="1" width="14.3"/>
@@ -742,19 +742,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>98000000.0</v>
+        <v>-11189000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>87000000.0</v>
+        <v>-8621000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>60710000.0</v>
+        <v>1348000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>41712000.0</v>
+        <v>2211000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>27631000.0</v>
+        <v>9686000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>259000.0</v>
@@ -866,19 +866,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>1068000000.0</v>
+        <v>26827000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>1041000000.0</v>
+        <v>67941000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>697587000.0</v>
+        <v>41648000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>557966000.0</v>
+        <v>-22257000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>317375000.0</v>
+        <v>28650000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>48324000.0</v>
